--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.25329177817043</v>
+        <v>5.235186000000001</v>
       </c>
       <c r="H2">
-        <v>4.25329177817043</v>
+        <v>15.705558</v>
       </c>
       <c r="I2">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="J2">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.73379793295523</v>
+        <v>7.129005666666667</v>
       </c>
       <c r="N2">
-        <v>5.73379793295523</v>
+        <v>21.387017</v>
       </c>
       <c r="O2">
-        <v>0.13141234320966</v>
+        <v>0.1534583556924785</v>
       </c>
       <c r="P2">
-        <v>0.13141234320966</v>
+        <v>0.1534583556924786</v>
       </c>
       <c r="Q2">
-        <v>24.38751560592909</v>
+        <v>37.321670660054</v>
       </c>
       <c r="R2">
-        <v>24.38751560592909</v>
+        <v>335.895035940486</v>
       </c>
       <c r="S2">
-        <v>0.01365962238086801</v>
+        <v>0.01851801507697948</v>
       </c>
       <c r="T2">
-        <v>0.01365962238086801</v>
+        <v>0.01851801507697949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.25329177817043</v>
+        <v>5.235186000000001</v>
       </c>
       <c r="H3">
-        <v>4.25329177817043</v>
+        <v>15.705558</v>
       </c>
       <c r="I3">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="J3">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.010886750427</v>
+        <v>10.01368066666667</v>
       </c>
       <c r="N3">
-        <v>10.010886750427</v>
+        <v>30.041042</v>
       </c>
       <c r="O3">
-        <v>0.229438515424297</v>
+        <v>0.2155536187495753</v>
       </c>
       <c r="P3">
-        <v>0.229438515424297</v>
+        <v>0.2155536187495754</v>
       </c>
       <c r="Q3">
-        <v>42.57922230778645</v>
+        <v>52.42348083460401</v>
       </c>
       <c r="R3">
-        <v>42.57922230778645</v>
+        <v>471.811327511436</v>
       </c>
       <c r="S3">
-        <v>0.02384892776261276</v>
+        <v>0.02601112949431769</v>
       </c>
       <c r="T3">
-        <v>0.02384892776261276</v>
+        <v>0.0260111294943177</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.25329177817043</v>
+        <v>5.235186000000001</v>
       </c>
       <c r="H4">
-        <v>4.25329177817043</v>
+        <v>15.705558</v>
       </c>
       <c r="I4">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="J4">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.54842402115648</v>
+        <v>6.376158666666666</v>
       </c>
       <c r="N4">
-        <v>5.54842402115648</v>
+        <v>19.128476</v>
       </c>
       <c r="O4">
-        <v>0.1271637770055037</v>
+        <v>0.1372526366749995</v>
       </c>
       <c r="P4">
-        <v>0.1271637770055037</v>
+        <v>0.1372526366749996</v>
       </c>
       <c r="Q4">
-        <v>23.59906627098817</v>
+        <v>33.380376585512</v>
       </c>
       <c r="R4">
-        <v>23.59906627098817</v>
+        <v>300.423389269608</v>
       </c>
       <c r="S4">
-        <v>0.01321800625416747</v>
+        <v>0.01656245033927079</v>
       </c>
       <c r="T4">
-        <v>0.01321800625416747</v>
+        <v>0.01656245033927079</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.25329177817043</v>
+        <v>5.235186000000001</v>
       </c>
       <c r="H5">
-        <v>4.25329177817043</v>
+        <v>15.705558</v>
       </c>
       <c r="I5">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="J5">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.14425043992671</v>
+        <v>8.221681333333335</v>
       </c>
       <c r="N5">
-        <v>8.14425043992671</v>
+        <v>24.665044</v>
       </c>
       <c r="O5">
-        <v>0.1866572639132851</v>
+        <v>0.1769791970204463</v>
       </c>
       <c r="P5">
-        <v>0.1866572639132851</v>
+        <v>0.1769791970204463</v>
       </c>
       <c r="Q5">
-        <v>34.63987343550119</v>
+        <v>43.04203101272801</v>
       </c>
       <c r="R5">
-        <v>34.63987343550119</v>
+        <v>387.3782791145521</v>
       </c>
       <c r="S5">
-        <v>0.01940204152385947</v>
+        <v>0.02135630493333233</v>
       </c>
       <c r="T5">
-        <v>0.01940204152385947</v>
+        <v>0.02135630493333233</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.25329177817043</v>
+        <v>5.235186000000001</v>
       </c>
       <c r="H6">
-        <v>4.25329177817043</v>
+        <v>15.705558</v>
       </c>
       <c r="I6">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="J6">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.30514011876999</v>
+        <v>7.442289666666666</v>
       </c>
       <c r="N6">
-        <v>7.30514011876999</v>
+        <v>22.326869</v>
       </c>
       <c r="O6">
-        <v>0.1674257781155669</v>
+        <v>0.1602020798179275</v>
       </c>
       <c r="P6">
-        <v>0.1674257781155669</v>
+        <v>0.1602020798179275</v>
       </c>
       <c r="Q6">
-        <v>31.07089240554736</v>
+        <v>38.961770670878</v>
       </c>
       <c r="R6">
-        <v>31.07089240554736</v>
+        <v>350.655936037902</v>
       </c>
       <c r="S6">
-        <v>0.01740302965477846</v>
+        <v>0.01933178884945693</v>
       </c>
       <c r="T6">
-        <v>0.01740302965477846</v>
+        <v>0.01933178884945693</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.25329177817043</v>
+        <v>5.235186000000001</v>
       </c>
       <c r="H7">
-        <v>4.25329177817043</v>
+        <v>15.705558</v>
       </c>
       <c r="I7">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="J7">
-        <v>0.1039447440570704</v>
+        <v>0.1206712726290935</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.88961163982734</v>
+        <v>7.272821</v>
       </c>
       <c r="N7">
-        <v>6.88961163982734</v>
+        <v>21.818463</v>
       </c>
       <c r="O7">
-        <v>0.1579023223316872</v>
+        <v>0.1565541120445727</v>
       </c>
       <c r="P7">
-        <v>0.1579023223316872</v>
+        <v>0.1565541120445728</v>
       </c>
       <c r="Q7">
-        <v>29.30352854246492</v>
+        <v>38.074570679706</v>
       </c>
       <c r="R7">
-        <v>29.30352854246492</v>
+        <v>342.671136117354</v>
       </c>
       <c r="S7">
-        <v>0.01641311648078427</v>
+        <v>0.01889158393573629</v>
       </c>
       <c r="T7">
-        <v>0.01641311648078427</v>
+        <v>0.01889158393573629</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.56528475610256</v>
+        <v>9.603329333333333</v>
       </c>
       <c r="H8">
-        <v>9.56528475610256</v>
+        <v>28.809988</v>
       </c>
       <c r="I8">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="J8">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.73379793295523</v>
+        <v>7.129005666666667</v>
       </c>
       <c r="N8">
-        <v>5.73379793295523</v>
+        <v>21.387017</v>
       </c>
       <c r="O8">
-        <v>0.13141234320966</v>
+        <v>0.1534583556924785</v>
       </c>
       <c r="P8">
-        <v>0.13141234320966</v>
+        <v>0.1534583556924786</v>
       </c>
       <c r="Q8">
-        <v>54.84540996266904</v>
+        <v>68.46218923619955</v>
       </c>
       <c r="R8">
-        <v>54.84540996266904</v>
+        <v>616.159703125796</v>
       </c>
       <c r="S8">
-        <v>0.03071930743252164</v>
+        <v>0.03396910776118861</v>
       </c>
       <c r="T8">
-        <v>0.03071930743252164</v>
+        <v>0.03396910776118862</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.56528475610256</v>
+        <v>9.603329333333333</v>
       </c>
       <c r="H9">
-        <v>9.56528475610256</v>
+        <v>28.809988</v>
       </c>
       <c r="I9">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="J9">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.010886750427</v>
+        <v>10.01368066666667</v>
       </c>
       <c r="N9">
-        <v>10.010886750427</v>
+        <v>30.041042</v>
       </c>
       <c r="O9">
-        <v>0.229438515424297</v>
+        <v>0.2155536187495753</v>
       </c>
       <c r="P9">
-        <v>0.229438515424297</v>
+        <v>0.2155536187495754</v>
       </c>
       <c r="Q9">
-        <v>95.75698242892848</v>
+        <v>96.1646732808329</v>
       </c>
       <c r="R9">
-        <v>95.75698242892848</v>
+        <v>865.4820595274961</v>
       </c>
       <c r="S9">
-        <v>0.05363417255969172</v>
+        <v>0.04771433963681766</v>
       </c>
       <c r="T9">
-        <v>0.05363417255969172</v>
+        <v>0.04771433963681766</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.56528475610256</v>
+        <v>9.603329333333333</v>
       </c>
       <c r="H10">
-        <v>9.56528475610256</v>
+        <v>28.809988</v>
       </c>
       <c r="I10">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="J10">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.54842402115648</v>
+        <v>6.376158666666666</v>
       </c>
       <c r="N10">
-        <v>5.54842402115648</v>
+        <v>19.128476</v>
       </c>
       <c r="O10">
-        <v>0.1271637770055037</v>
+        <v>0.1372526366749995</v>
       </c>
       <c r="P10">
-        <v>0.1271637770055037</v>
+        <v>0.1372526366749996</v>
       </c>
       <c r="Q10">
-        <v>53.07225570996135</v>
+        <v>61.23235155758755</v>
       </c>
       <c r="R10">
-        <v>53.07225570996135</v>
+        <v>551.0911640182879</v>
       </c>
       <c r="S10">
-        <v>0.02972615101977378</v>
+        <v>0.03038185561601742</v>
       </c>
       <c r="T10">
-        <v>0.02972615101977378</v>
+        <v>0.03038185561601743</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.56528475610256</v>
+        <v>9.603329333333333</v>
       </c>
       <c r="H11">
-        <v>9.56528475610256</v>
+        <v>28.809988</v>
       </c>
       <c r="I11">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="J11">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.14425043992671</v>
+        <v>8.221681333333335</v>
       </c>
       <c r="N11">
-        <v>8.14425043992671</v>
+        <v>24.665044</v>
       </c>
       <c r="O11">
-        <v>0.1866572639132851</v>
+        <v>0.1769791970204463</v>
       </c>
       <c r="P11">
-        <v>0.1866572639132851</v>
+        <v>0.1769791970204463</v>
       </c>
       <c r="Q11">
-        <v>77.90207458291253</v>
+        <v>78.95551351771913</v>
       </c>
       <c r="R11">
-        <v>77.90207458291253</v>
+        <v>710.5996216594721</v>
       </c>
       <c r="S11">
-        <v>0.04363351063238658</v>
+        <v>0.03917561469981806</v>
       </c>
       <c r="T11">
-        <v>0.04363351063238658</v>
+        <v>0.03917561469981806</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.56528475610256</v>
+        <v>9.603329333333333</v>
       </c>
       <c r="H12">
-        <v>9.56528475610256</v>
+        <v>28.809988</v>
       </c>
       <c r="I12">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="J12">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.30514011876999</v>
+        <v>7.442289666666666</v>
       </c>
       <c r="N12">
-        <v>7.30514011876999</v>
+        <v>22.326869</v>
       </c>
       <c r="O12">
-        <v>0.1674257781155669</v>
+        <v>0.1602020798179275</v>
       </c>
       <c r="P12">
-        <v>0.1674257781155669</v>
+        <v>0.1602020798179275</v>
       </c>
       <c r="Q12">
-        <v>69.87574541926384</v>
+        <v>71.47075866306355</v>
       </c>
       <c r="R12">
-        <v>69.87574541926384</v>
+        <v>643.236827967572</v>
       </c>
       <c r="S12">
-        <v>0.0391379061086796</v>
+        <v>0.03546187946785385</v>
       </c>
       <c r="T12">
-        <v>0.0391379061086796</v>
+        <v>0.03546187946785386</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.56528475610256</v>
+        <v>9.603329333333333</v>
       </c>
       <c r="H13">
-        <v>9.56528475610256</v>
+        <v>28.809988</v>
       </c>
       <c r="I13">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="J13">
-        <v>0.2337627248873491</v>
+        <v>0.2213571728167132</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.88961163982734</v>
+        <v>7.272821</v>
       </c>
       <c r="N13">
-        <v>6.88961163982734</v>
+        <v>21.818463</v>
       </c>
       <c r="O13">
-        <v>0.1579023223316872</v>
+        <v>0.1565541120445727</v>
       </c>
       <c r="P13">
-        <v>0.1579023223316872</v>
+        <v>0.1565541120445728</v>
       </c>
       <c r="Q13">
-        <v>65.90109719390722</v>
+        <v>69.84329524538266</v>
       </c>
       <c r="R13">
-        <v>65.90109719390722</v>
+        <v>628.5896572084439</v>
       </c>
       <c r="S13">
-        <v>0.03691167713429572</v>
+        <v>0.03465437563501756</v>
       </c>
       <c r="T13">
-        <v>0.03691167713429572</v>
+        <v>0.03465437563501757</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.181937509479059</v>
+        <v>8.838605666666668</v>
       </c>
       <c r="H14">
-        <v>8.181937509479059</v>
+        <v>26.515817</v>
       </c>
       <c r="I14">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="J14">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.73379793295523</v>
+        <v>7.129005666666667</v>
       </c>
       <c r="N14">
-        <v>5.73379793295523</v>
+        <v>21.387017</v>
       </c>
       <c r="O14">
-        <v>0.13141234320966</v>
+        <v>0.1534583556924785</v>
       </c>
       <c r="P14">
-        <v>0.13141234320966</v>
+        <v>0.1534583556924786</v>
       </c>
       <c r="Q14">
-        <v>46.91357637941989</v>
+        <v>63.01046988309879</v>
       </c>
       <c r="R14">
-        <v>46.91357637941989</v>
+        <v>567.0942289478891</v>
       </c>
       <c r="S14">
-        <v>0.02627663056105183</v>
+        <v>0.03126411038591745</v>
       </c>
       <c r="T14">
-        <v>0.02627663056105183</v>
+        <v>0.03126411038591746</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.181937509479059</v>
+        <v>8.838605666666668</v>
       </c>
       <c r="H15">
-        <v>8.181937509479059</v>
+        <v>26.515817</v>
       </c>
       <c r="I15">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="J15">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.010886750427</v>
+        <v>10.01368066666667</v>
       </c>
       <c r="N15">
-        <v>10.010886750427</v>
+        <v>30.041042</v>
       </c>
       <c r="O15">
-        <v>0.229438515424297</v>
+        <v>0.2155536187495753</v>
       </c>
       <c r="P15">
-        <v>0.229438515424297</v>
+        <v>0.2155536187495754</v>
       </c>
       <c r="Q15">
-        <v>81.9084498064656</v>
+        <v>88.50697468459046</v>
       </c>
       <c r="R15">
-        <v>81.9084498064656</v>
+        <v>796.5627721613141</v>
       </c>
       <c r="S15">
-        <v>0.04587751012598386</v>
+        <v>0.0439147943444372</v>
       </c>
       <c r="T15">
-        <v>0.04587751012598386</v>
+        <v>0.04391479434443721</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.181937509479059</v>
+        <v>8.838605666666668</v>
       </c>
       <c r="H16">
-        <v>8.181937509479059</v>
+        <v>26.515817</v>
       </c>
       <c r="I16">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="J16">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.54842402115648</v>
+        <v>6.376158666666666</v>
       </c>
       <c r="N16">
-        <v>5.54842402115648</v>
+        <v>19.128476</v>
       </c>
       <c r="O16">
-        <v>0.1271637770055037</v>
+        <v>0.1372526366749995</v>
       </c>
       <c r="P16">
-        <v>0.1271637770055037</v>
+        <v>0.1372526366749996</v>
       </c>
       <c r="Q16">
-        <v>45.39685861719484</v>
+        <v>56.35635212276578</v>
       </c>
       <c r="R16">
-        <v>45.39685861719484</v>
+        <v>507.207169104892</v>
       </c>
       <c r="S16">
-        <v>0.02542710606560414</v>
+        <v>0.02796251507063246</v>
       </c>
       <c r="T16">
-        <v>0.02542710606560414</v>
+        <v>0.02796251507063246</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.181937509479059</v>
+        <v>8.838605666666668</v>
       </c>
       <c r="H17">
-        <v>8.181937509479059</v>
+        <v>26.515817</v>
       </c>
       <c r="I17">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="J17">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.14425043992671</v>
+        <v>8.221681333333335</v>
       </c>
       <c r="N17">
-        <v>8.14425043992671</v>
+        <v>24.665044</v>
       </c>
       <c r="O17">
-        <v>0.1866572639132851</v>
+        <v>0.1769791970204463</v>
       </c>
       <c r="P17">
-        <v>0.1866572639132851</v>
+        <v>0.1769791970204463</v>
       </c>
       <c r="Q17">
-        <v>66.63574816102768</v>
+        <v>72.66819922232757</v>
       </c>
       <c r="R17">
-        <v>66.63574816102768</v>
+        <v>654.0137930009481</v>
       </c>
       <c r="S17">
-        <v>0.03732316040937624</v>
+        <v>0.03605601745626849</v>
       </c>
       <c r="T17">
-        <v>0.03732316040937624</v>
+        <v>0.03605601745626849</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.181937509479059</v>
+        <v>8.838605666666668</v>
       </c>
       <c r="H18">
-        <v>8.181937509479059</v>
+        <v>26.515817</v>
       </c>
       <c r="I18">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="J18">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.30514011876999</v>
+        <v>7.442289666666666</v>
       </c>
       <c r="N18">
-        <v>7.30514011876999</v>
+        <v>22.326869</v>
       </c>
       <c r="O18">
-        <v>0.1674257781155669</v>
+        <v>0.1602020798179275</v>
       </c>
       <c r="P18">
-        <v>0.1674257781155669</v>
+        <v>0.1602020798179275</v>
       </c>
       <c r="Q18">
-        <v>59.77019994976449</v>
+        <v>65.77946362077479</v>
       </c>
       <c r="R18">
-        <v>59.77019994976449</v>
+        <v>592.015172586973</v>
       </c>
       <c r="S18">
-        <v>0.03347771762139914</v>
+        <v>0.03263801104136768</v>
       </c>
       <c r="T18">
-        <v>0.03347771762139914</v>
+        <v>0.03263801104136769</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.181937509479059</v>
+        <v>8.838605666666668</v>
       </c>
       <c r="H19">
-        <v>8.181937509479059</v>
+        <v>26.515817</v>
       </c>
       <c r="I19">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="J19">
-        <v>0.1999555743339052</v>
+        <v>0.2037302579246247</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.88961163982734</v>
+        <v>7.272821</v>
       </c>
       <c r="N19">
-        <v>6.88961163982734</v>
+        <v>21.818463</v>
       </c>
       <c r="O19">
-        <v>0.1579023223316872</v>
+        <v>0.1565541120445727</v>
       </c>
       <c r="P19">
-        <v>0.1579023223316872</v>
+        <v>0.1565541120445728</v>
       </c>
       <c r="Q19">
-        <v>56.37037190164684</v>
+        <v>64.28159690325234</v>
       </c>
       <c r="R19">
-        <v>56.37037190164684</v>
+        <v>578.534372129271</v>
       </c>
       <c r="S19">
-        <v>0.03157344955048994</v>
+        <v>0.03189480962600139</v>
       </c>
       <c r="T19">
-        <v>0.03157344955048994</v>
+        <v>0.0318948096260014</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.83490847231039</v>
+        <v>9.165733666666668</v>
       </c>
       <c r="H20">
-        <v>8.83490847231039</v>
+        <v>27.497201</v>
       </c>
       <c r="I20">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294958</v>
       </c>
       <c r="J20">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294959</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.73379793295523</v>
+        <v>7.129005666666667</v>
       </c>
       <c r="N20">
-        <v>5.73379793295523</v>
+        <v>21.387017</v>
       </c>
       <c r="O20">
-        <v>0.13141234320966</v>
+        <v>0.1534583556924785</v>
       </c>
       <c r="P20">
-        <v>0.13141234320966</v>
+        <v>0.1534583556924786</v>
       </c>
       <c r="Q20">
-        <v>50.65757993638197</v>
+        <v>65.34256724882412</v>
       </c>
       <c r="R20">
-        <v>50.65757993638197</v>
+        <v>588.0831052394171</v>
       </c>
       <c r="S20">
-        <v>0.02837367380264775</v>
+        <v>0.03242123474331413</v>
       </c>
       <c r="T20">
-        <v>0.02837367380264775</v>
+        <v>0.03242123474331415</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.83490847231039</v>
+        <v>9.165733666666668</v>
       </c>
       <c r="H21">
-        <v>8.83490847231039</v>
+        <v>27.497201</v>
       </c>
       <c r="I21">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294958</v>
       </c>
       <c r="J21">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294959</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.010886750427</v>
+        <v>10.01368066666667</v>
       </c>
       <c r="N21">
-        <v>10.010886750427</v>
+        <v>30.041042</v>
       </c>
       <c r="O21">
-        <v>0.229438515424297</v>
+        <v>0.2155536187495753</v>
       </c>
       <c r="P21">
-        <v>0.229438515424297</v>
+        <v>0.2155536187495754</v>
       </c>
       <c r="Q21">
-        <v>88.44526816668733</v>
+        <v>91.78273001371581</v>
       </c>
       <c r="R21">
-        <v>88.44526816668733</v>
+        <v>826.0445701234421</v>
       </c>
       <c r="S21">
-        <v>0.049538828966975</v>
+        <v>0.04554013655180426</v>
       </c>
       <c r="T21">
-        <v>0.049538828966975</v>
+        <v>0.04554013655180427</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.83490847231039</v>
+        <v>9.165733666666668</v>
       </c>
       <c r="H22">
-        <v>8.83490847231039</v>
+        <v>27.497201</v>
       </c>
       <c r="I22">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294958</v>
       </c>
       <c r="J22">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294959</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.54842402115648</v>
+        <v>6.376158666666666</v>
       </c>
       <c r="N22">
-        <v>5.54842402115648</v>
+        <v>19.128476</v>
       </c>
       <c r="O22">
-        <v>0.1271637770055037</v>
+        <v>0.1372526366749995</v>
       </c>
       <c r="P22">
-        <v>0.1271637770055037</v>
+        <v>0.1372526366749996</v>
       </c>
       <c r="Q22">
-        <v>49.01981839248587</v>
+        <v>58.44217215507511</v>
       </c>
       <c r="R22">
-        <v>49.01981839248587</v>
+        <v>525.979549395676</v>
       </c>
       <c r="S22">
-        <v>0.02745635181704585</v>
+        <v>0.02899744320013635</v>
       </c>
       <c r="T22">
-        <v>0.02745635181704585</v>
+        <v>0.02899744320013636</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.83490847231039</v>
+        <v>9.165733666666668</v>
       </c>
       <c r="H23">
-        <v>8.83490847231039</v>
+        <v>27.497201</v>
       </c>
       <c r="I23">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294958</v>
       </c>
       <c r="J23">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294959</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.14425043992671</v>
+        <v>8.221681333333335</v>
       </c>
       <c r="N23">
-        <v>8.14425043992671</v>
+        <v>24.665044</v>
       </c>
       <c r="O23">
-        <v>0.1866572639132851</v>
+        <v>0.1769791970204463</v>
       </c>
       <c r="P23">
-        <v>0.1866572639132851</v>
+        <v>0.1769791970204463</v>
       </c>
       <c r="Q23">
-        <v>71.95370721232611</v>
+        <v>75.35774139353825</v>
       </c>
       <c r="R23">
-        <v>71.95370721232611</v>
+        <v>678.2196725418441</v>
       </c>
       <c r="S23">
-        <v>0.04030178741064385</v>
+        <v>0.03739049636880973</v>
       </c>
       <c r="T23">
-        <v>0.04030178741064385</v>
+        <v>0.03739049636880973</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.83490847231039</v>
+        <v>9.165733666666668</v>
       </c>
       <c r="H24">
-        <v>8.83490847231039</v>
+        <v>27.497201</v>
       </c>
       <c r="I24">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294958</v>
       </c>
       <c r="J24">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294959</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.30514011876999</v>
+        <v>7.442289666666666</v>
       </c>
       <c r="N24">
-        <v>7.30514011876999</v>
+        <v>22.326869</v>
       </c>
       <c r="O24">
-        <v>0.1674257781155669</v>
+        <v>0.1602020798179275</v>
       </c>
       <c r="P24">
-        <v>0.1674257781155669</v>
+        <v>0.1602020798179275</v>
       </c>
       <c r="Q24">
-        <v>64.54024432673552</v>
+        <v>68.21404495485211</v>
       </c>
       <c r="R24">
-        <v>64.54024432673552</v>
+        <v>613.9264045936691</v>
       </c>
       <c r="S24">
-        <v>0.03614945368432004</v>
+        <v>0.03384598520365057</v>
       </c>
       <c r="T24">
-        <v>0.03614945368432004</v>
+        <v>0.03384598520365058</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.83490847231039</v>
+        <v>9.165733666666668</v>
       </c>
       <c r="H25">
-        <v>8.83490847231039</v>
+        <v>27.497201</v>
       </c>
       <c r="I25">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294958</v>
       </c>
       <c r="J25">
-        <v>0.2159133085191196</v>
+        <v>0.2112705730294959</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.88961163982734</v>
+        <v>7.272821</v>
       </c>
       <c r="N25">
-        <v>6.88961163982734</v>
+        <v>21.818463</v>
       </c>
       <c r="O25">
-        <v>0.1579023223316872</v>
+        <v>0.1565541120445727</v>
       </c>
       <c r="P25">
-        <v>0.1579023223316872</v>
+        <v>0.1565541120445728</v>
       </c>
       <c r="Q25">
-        <v>60.86908824763885</v>
+        <v>66.66074029134033</v>
       </c>
       <c r="R25">
-        <v>60.86908824763885</v>
+        <v>599.9466626220631</v>
       </c>
       <c r="S25">
-        <v>0.03409321283748705</v>
+        <v>0.03307527696178077</v>
       </c>
       <c r="T25">
-        <v>0.03409321283748705</v>
+        <v>0.03307527696178079</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.36919282447319</v>
+        <v>5.455266333333333</v>
       </c>
       <c r="H26">
-        <v>5.36919282447319</v>
+        <v>16.365799</v>
       </c>
       <c r="I26">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="J26">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.73379793295523</v>
+        <v>7.129005666666667</v>
       </c>
       <c r="N26">
-        <v>5.73379793295523</v>
+        <v>21.387017</v>
       </c>
       <c r="O26">
-        <v>0.13141234320966</v>
+        <v>0.1534583556924785</v>
       </c>
       <c r="P26">
-        <v>0.13141234320966</v>
+        <v>0.1534583556924786</v>
       </c>
       <c r="Q26">
-        <v>30.78586671860243</v>
+        <v>38.89062460350922</v>
       </c>
       <c r="R26">
-        <v>30.78586671860243</v>
+        <v>350.015621431583</v>
       </c>
       <c r="S26">
-        <v>0.01724338472351828</v>
+        <v>0.01929648807312772</v>
       </c>
       <c r="T26">
-        <v>0.01724338472351828</v>
+        <v>0.01929648807312773</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.36919282447319</v>
+        <v>5.455266333333333</v>
       </c>
       <c r="H27">
-        <v>5.36919282447319</v>
+        <v>16.365799</v>
       </c>
       <c r="I27">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="J27">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>10.010886750427</v>
+        <v>10.01368066666667</v>
       </c>
       <c r="N27">
-        <v>10.010886750427</v>
+        <v>30.041042</v>
       </c>
       <c r="O27">
-        <v>0.229438515424297</v>
+        <v>0.2155536187495753</v>
       </c>
       <c r="P27">
-        <v>0.229438515424297</v>
+        <v>0.2155536187495754</v>
       </c>
       <c r="Q27">
-        <v>53.75038130700638</v>
+        <v>54.62729501361756</v>
       </c>
       <c r="R27">
-        <v>53.75038130700638</v>
+        <v>491.645655122558</v>
       </c>
       <c r="S27">
-        <v>0.03010597402971513</v>
+        <v>0.02710460316449596</v>
       </c>
       <c r="T27">
-        <v>0.03010597402971513</v>
+        <v>0.02710460316449597</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.36919282447319</v>
+        <v>5.455266333333333</v>
       </c>
       <c r="H28">
-        <v>5.36919282447319</v>
+        <v>16.365799</v>
       </c>
       <c r="I28">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="J28">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.54842402115648</v>
+        <v>6.376158666666666</v>
       </c>
       <c r="N28">
-        <v>5.54842402115648</v>
+        <v>19.128476</v>
       </c>
       <c r="O28">
-        <v>0.1271637770055037</v>
+        <v>0.1372526366749995</v>
       </c>
       <c r="P28">
-        <v>0.1271637770055037</v>
+        <v>0.1372526366749996</v>
       </c>
       <c r="Q28">
-        <v>29.79055844152806</v>
+        <v>34.78364371025822</v>
       </c>
       <c r="R28">
-        <v>29.79055844152806</v>
+        <v>313.052793392324</v>
       </c>
       <c r="S28">
-        <v>0.01668590541988298</v>
+        <v>0.01725871396609961</v>
       </c>
       <c r="T28">
-        <v>0.01668590541988298</v>
+        <v>0.01725871396609962</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.36919282447319</v>
+        <v>5.455266333333333</v>
       </c>
       <c r="H29">
-        <v>5.36919282447319</v>
+        <v>16.365799</v>
       </c>
       <c r="I29">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="J29">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.14425043992671</v>
+        <v>8.221681333333335</v>
       </c>
       <c r="N29">
-        <v>8.14425043992671</v>
+        <v>24.665044</v>
       </c>
       <c r="O29">
-        <v>0.1866572639132851</v>
+        <v>0.1769791970204463</v>
       </c>
       <c r="P29">
-        <v>0.1866572639132851</v>
+        <v>0.1769791970204463</v>
       </c>
       <c r="Q29">
-        <v>43.72805102276711</v>
+        <v>44.85146138112845</v>
       </c>
       <c r="R29">
-        <v>43.72805102276711</v>
+        <v>403.663152430156</v>
       </c>
       <c r="S29">
-        <v>0.0244923949644592</v>
+        <v>0.0222540959016945</v>
       </c>
       <c r="T29">
-        <v>0.0244923949644592</v>
+        <v>0.0222540959016945</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.36919282447319</v>
+        <v>5.455266333333333</v>
       </c>
       <c r="H30">
-        <v>5.36919282447319</v>
+        <v>16.365799</v>
       </c>
       <c r="I30">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="J30">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.30514011876999</v>
+        <v>7.442289666666666</v>
       </c>
       <c r="N30">
-        <v>7.30514011876999</v>
+        <v>22.326869</v>
       </c>
       <c r="O30">
-        <v>0.1674257781155669</v>
+        <v>0.1602020798179275</v>
       </c>
       <c r="P30">
-        <v>0.1674257781155669</v>
+        <v>0.1602020798179275</v>
       </c>
       <c r="Q30">
-        <v>39.22270590747106</v>
+        <v>40.59967226148122</v>
       </c>
       <c r="R30">
-        <v>39.22270590747106</v>
+        <v>365.3970503533309</v>
       </c>
       <c r="S30">
-        <v>0.02196891885623806</v>
+        <v>0.02014447182460205</v>
       </c>
       <c r="T30">
-        <v>0.02196891885623806</v>
+        <v>0.02014447182460205</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.36919282447319</v>
+        <v>5.455266333333333</v>
       </c>
       <c r="H31">
-        <v>5.36919282447319</v>
+        <v>16.365799</v>
       </c>
       <c r="I31">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="J31">
-        <v>0.1312158683298688</v>
+        <v>0.1257441342053524</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.88961163982734</v>
+        <v>7.272821</v>
       </c>
       <c r="N31">
-        <v>6.88961163982734</v>
+        <v>21.818463</v>
       </c>
       <c r="O31">
-        <v>0.1579023223316872</v>
+        <v>0.1565541120445727</v>
       </c>
       <c r="P31">
-        <v>0.1579023223316872</v>
+        <v>0.1565541120445728</v>
       </c>
       <c r="Q31">
-        <v>36.99165337996792</v>
+        <v>39.67517554965966</v>
       </c>
       <c r="R31">
-        <v>36.99165337996792</v>
+        <v>357.0765799469369</v>
       </c>
       <c r="S31">
-        <v>0.02071929033605518</v>
+        <v>0.01968576127533253</v>
       </c>
       <c r="T31">
-        <v>0.02071929033605518</v>
+        <v>0.01968576127533253</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.71416142642796</v>
+        <v>5.085742333333333</v>
       </c>
       <c r="H32">
-        <v>4.71416142642796</v>
+        <v>15.257227</v>
       </c>
       <c r="I32">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="J32">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.73379793295523</v>
+        <v>7.129005666666667</v>
       </c>
       <c r="N32">
-        <v>5.73379793295523</v>
+        <v>21.387017</v>
       </c>
       <c r="O32">
-        <v>0.13141234320966</v>
+        <v>0.1534583556924785</v>
       </c>
       <c r="P32">
-        <v>0.13141234320966</v>
+        <v>0.1534583556924786</v>
       </c>
       <c r="Q32">
-        <v>27.03004904246992</v>
+        <v>36.25628591353989</v>
       </c>
       <c r="R32">
-        <v>27.03004904246992</v>
+        <v>326.306573221859</v>
       </c>
       <c r="S32">
-        <v>0.0151397243090525</v>
+        <v>0.01798939965195114</v>
       </c>
       <c r="T32">
-        <v>0.0151397243090525</v>
+        <v>0.01798939965195114</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.71416142642796</v>
+        <v>5.085742333333333</v>
       </c>
       <c r="H33">
-        <v>4.71416142642796</v>
+        <v>15.257227</v>
       </c>
       <c r="I33">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="J33">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>10.010886750427</v>
+        <v>10.01368066666667</v>
       </c>
       <c r="N33">
-        <v>10.010886750427</v>
+        <v>30.041042</v>
       </c>
       <c r="O33">
-        <v>0.229438515424297</v>
+        <v>0.2155536187495753</v>
       </c>
       <c r="P33">
-        <v>0.229438515424297</v>
+        <v>0.2155536187495754</v>
       </c>
       <c r="Q33">
-        <v>47.19293616320171</v>
+        <v>50.92699967894823</v>
       </c>
       <c r="R33">
-        <v>47.19293616320171</v>
+        <v>458.342997110534</v>
       </c>
       <c r="S33">
-        <v>0.02643310197931851</v>
+        <v>0.02526861555770257</v>
       </c>
       <c r="T33">
-        <v>0.02643310197931851</v>
+        <v>0.02526861555770258</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.71416142642796</v>
+        <v>5.085742333333333</v>
       </c>
       <c r="H34">
-        <v>4.71416142642796</v>
+        <v>15.257227</v>
       </c>
       <c r="I34">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="J34">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.54842402115648</v>
+        <v>6.376158666666666</v>
       </c>
       <c r="N34">
-        <v>5.54842402115648</v>
+        <v>19.128476</v>
       </c>
       <c r="O34">
-        <v>0.1271637770055037</v>
+        <v>0.1372526366749995</v>
       </c>
       <c r="P34">
-        <v>0.1271637770055037</v>
+        <v>0.1372526366749996</v>
       </c>
       <c r="Q34">
-        <v>26.15616649800219</v>
+        <v>32.42750005511689</v>
       </c>
       <c r="R34">
-        <v>26.15616649800219</v>
+        <v>291.847500496052</v>
       </c>
       <c r="S34">
-        <v>0.01465025642902953</v>
+        <v>0.01608965848284291</v>
       </c>
       <c r="T34">
-        <v>0.01465025642902953</v>
+        <v>0.01608965848284292</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.71416142642796</v>
+        <v>5.085742333333333</v>
       </c>
       <c r="H35">
-        <v>4.71416142642796</v>
+        <v>15.257227</v>
       </c>
       <c r="I35">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="J35">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.14425043992671</v>
+        <v>8.221681333333335</v>
       </c>
       <c r="N35">
-        <v>8.14425043992671</v>
+        <v>24.665044</v>
       </c>
       <c r="O35">
-        <v>0.1866572639132851</v>
+        <v>0.1769791970204463</v>
       </c>
       <c r="P35">
-        <v>0.1866572639132851</v>
+        <v>0.1769791970204463</v>
       </c>
       <c r="Q35">
-        <v>38.39331127107144</v>
+        <v>41.81335280810978</v>
       </c>
       <c r="R35">
-        <v>38.39331127107144</v>
+        <v>376.320175272988</v>
       </c>
       <c r="S35">
-        <v>0.0215043689725598</v>
+        <v>0.02074666766052318</v>
       </c>
       <c r="T35">
-        <v>0.0215043689725598</v>
+        <v>0.02074666766052318</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.71416142642796</v>
+        <v>5.085742333333333</v>
       </c>
       <c r="H36">
-        <v>4.71416142642796</v>
+        <v>15.257227</v>
       </c>
       <c r="I36">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="J36">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.30514011876999</v>
+        <v>7.442289666666666</v>
       </c>
       <c r="N36">
-        <v>7.30514011876999</v>
+        <v>22.326869</v>
       </c>
       <c r="O36">
-        <v>0.1674257781155669</v>
+        <v>0.1602020798179275</v>
       </c>
       <c r="P36">
-        <v>0.1674257781155669</v>
+        <v>0.1602020798179275</v>
       </c>
       <c r="Q36">
-        <v>34.43760976255685</v>
+        <v>37.84956761469589</v>
       </c>
       <c r="R36">
-        <v>34.43760976255685</v>
+        <v>340.646108532263</v>
       </c>
       <c r="S36">
-        <v>0.01928875219015156</v>
+        <v>0.01877994343099641</v>
       </c>
       <c r="T36">
-        <v>0.01928875219015156</v>
+        <v>0.01877994343099642</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.71416142642796</v>
+        <v>5.085742333333333</v>
       </c>
       <c r="H37">
-        <v>4.71416142642796</v>
+        <v>15.257227</v>
       </c>
       <c r="I37">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="J37">
-        <v>0.115207779872687</v>
+        <v>0.1172265893947204</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.88961163982734</v>
+        <v>7.272821</v>
       </c>
       <c r="N37">
-        <v>6.88961163982734</v>
+        <v>21.818463</v>
       </c>
       <c r="O37">
-        <v>0.1579023223316872</v>
+        <v>0.1565541120445727</v>
       </c>
       <c r="P37">
-        <v>0.1579023223316872</v>
+        <v>0.1565541120445728</v>
       </c>
       <c r="Q37">
-        <v>32.47874143554313</v>
+        <v>36.98769364245566</v>
       </c>
       <c r="R37">
-        <v>32.47874143554313</v>
+        <v>332.889242782101</v>
       </c>
       <c r="S37">
-        <v>0.01819157599257509</v>
+        <v>0.01835230461070418</v>
       </c>
       <c r="T37">
-        <v>0.01819157599257509</v>
+        <v>0.01835230461070418</v>
       </c>
     </row>
   </sheetData>
